--- a/Översikt VADSTENA.xlsx
+++ b/Översikt VADSTENA.xlsx
@@ -572,7 +572,7 @@
         <v>44683</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43871</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45086</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43431</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>43461</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>43565</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43851</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
         <v>43871</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>44132</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44152</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>44263</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44263</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         <v>44484</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         <v>44578</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         <v>44687</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         <v>45077</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
         <v>45077</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>45077</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>45077</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>

--- a/Översikt VADSTENA.xlsx
+++ b/Översikt VADSTENA.xlsx
@@ -572,7 +572,7 @@
         <v>44683</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43871</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45086</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43431</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>43461</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>43565</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43851</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
         <v>43871</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>44132</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44152</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>44263</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44263</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         <v>44484</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         <v>44578</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         <v>44687</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         <v>45077</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
         <v>45077</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>45077</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>45077</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>

--- a/Översikt VADSTENA.xlsx
+++ b/Översikt VADSTENA.xlsx
@@ -572,7 +572,7 @@
         <v>44683</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43871</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45086</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43431</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>43461</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>43565</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43851</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
         <v>43871</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>44132</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44152</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>44263</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44263</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         <v>44484</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         <v>44578</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         <v>44687</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         <v>45077</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
         <v>45077</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>45077</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>45077</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>

--- a/Översikt VADSTENA.xlsx
+++ b/Översikt VADSTENA.xlsx
@@ -572,7 +572,7 @@
         <v>44683</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43871</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45086</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43431</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>43461</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>43565</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43851</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
         <v>43871</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>44132</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44152</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>44263</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44263</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         <v>44484</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         <v>44578</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         <v>44687</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         <v>45077</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
         <v>45077</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>45077</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>45077</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>

--- a/Översikt VADSTENA.xlsx
+++ b/Översikt VADSTENA.xlsx
@@ -572,7 +572,7 @@
         <v>44683</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43871</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45086</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43431</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>43461</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>43565</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43851</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
         <v>43871</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>44132</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44152</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>44263</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44263</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         <v>44484</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         <v>44578</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         <v>44687</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         <v>45077</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
         <v>45077</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>45077</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>45077</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>

--- a/Översikt VADSTENA.xlsx
+++ b/Översikt VADSTENA.xlsx
@@ -572,7 +572,7 @@
         <v>44683</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43871</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45086</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43431</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>43461</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>43565</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43851</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
         <v>43871</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>44132</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44152</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>44263</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44263</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         <v>44484</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         <v>44578</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         <v>44687</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         <v>45077</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
         <v>45077</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>45077</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>45077</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>

--- a/Översikt VADSTENA.xlsx
+++ b/Översikt VADSTENA.xlsx
@@ -572,7 +572,7 @@
         <v>44683</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43871</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45086</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43431</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>43461</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>43565</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43851</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
         <v>43871</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>44132</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44152</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>44263</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44263</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         <v>44484</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         <v>44578</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         <v>44687</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         <v>45077</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
         <v>45077</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>45077</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>45077</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>

--- a/Översikt VADSTENA.xlsx
+++ b/Översikt VADSTENA.xlsx
@@ -572,7 +572,7 @@
         <v>44683</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43871</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45086</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43431</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>43461</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>43565</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43851</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
         <v>43871</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>44132</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44152</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>44263</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44263</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         <v>44484</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         <v>44578</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         <v>44687</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         <v>45077</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
         <v>45077</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>45077</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>45077</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>

--- a/Översikt VADSTENA.xlsx
+++ b/Översikt VADSTENA.xlsx
@@ -572,7 +572,7 @@
         <v>44683</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43871</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45086</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43431</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>43461</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>43565</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43851</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
         <v>43871</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>44132</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44152</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>44263</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44263</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         <v>44484</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         <v>44578</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         <v>44687</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         <v>45077</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
         <v>45077</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>45077</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>45077</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>

--- a/Översikt VADSTENA.xlsx
+++ b/Översikt VADSTENA.xlsx
@@ -572,7 +572,7 @@
         <v>44683</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,27 +629,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VADSTENA/artfynd/A 18029-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VADSTENA/artfynd/A 18029-2022.xlsx", "A 18029-2022")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VADSTENA/kartor/A 18029-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VADSTENA/kartor/A 18029-2022.png", "A 18029-2022")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VADSTENA/klagomål/A 18029-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VADSTENA/klagomål/A 18029-2022.docx", "A 18029-2022")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VADSTENA/klagomålsmail/A 18029-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VADSTENA/klagomålsmail/A 18029-2022.docx", "A 18029-2022")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VADSTENA/tillsyn/A 18029-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VADSTENA/tillsyn/A 18029-2022.docx", "A 18029-2022")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VADSTENA/tillsynsmail/A 18029-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VADSTENA/tillsynsmail/A 18029-2022.docx", "A 18029-2022")</f>
         <v/>
       </c>
     </row>
@@ -663,7 +663,7 @@
         <v>43871</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -714,27 +714,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VADSTENA/artfynd/A 7268-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VADSTENA/artfynd/A 7268-2020.xlsx", "A 7268-2020")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VADSTENA/kartor/A 7268-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VADSTENA/kartor/A 7268-2020.png", "A 7268-2020")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VADSTENA/klagomål/A 7268-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VADSTENA/klagomål/A 7268-2020.docx", "A 7268-2020")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VADSTENA/klagomålsmail/A 7268-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VADSTENA/klagomålsmail/A 7268-2020.docx", "A 7268-2020")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VADSTENA/tillsyn/A 7268-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VADSTENA/tillsyn/A 7268-2020.docx", "A 7268-2020")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VADSTENA/tillsynsmail/A 7268-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VADSTENA/tillsynsmail/A 7268-2020.docx", "A 7268-2020")</f>
         <v/>
       </c>
     </row>
@@ -748,7 +748,7 @@
         <v>45086</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -799,27 +799,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VADSTENA/artfynd/A 25203-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VADSTENA/artfynd/A 25203-2023.xlsx", "A 25203-2023")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VADSTENA/kartor/A 25203-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VADSTENA/kartor/A 25203-2023.png", "A 25203-2023")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VADSTENA/klagomål/A 25203-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VADSTENA/klagomål/A 25203-2023.docx", "A 25203-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VADSTENA/klagomålsmail/A 25203-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VADSTENA/klagomålsmail/A 25203-2023.docx", "A 25203-2023")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VADSTENA/tillsyn/A 25203-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VADSTENA/tillsyn/A 25203-2023.docx", "A 25203-2023")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VADSTENA/tillsynsmail/A 25203-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VADSTENA/tillsynsmail/A 25203-2023.docx", "A 25203-2023")</f>
         <v/>
       </c>
     </row>
@@ -833,7 +833,7 @@
         <v>43431</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>43461</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>43565</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43851</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
         <v>43871</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>44132</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44152</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>44263</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44263</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         <v>44484</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         <v>44578</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         <v>44687</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         <v>45077</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
         <v>45077</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>45077</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>45077</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>

--- a/Översikt VADSTENA.xlsx
+++ b/Översikt VADSTENA.xlsx
@@ -572,7 +572,7 @@
         <v>44683</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43871</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45086</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43431</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>43461</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>43565</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43851</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
         <v>43871</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>44132</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44152</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>44263</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44263</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         <v>44484</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         <v>44578</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         <v>44687</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         <v>45077</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
         <v>45077</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>45077</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>45077</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>

--- a/Översikt VADSTENA.xlsx
+++ b/Översikt VADSTENA.xlsx
@@ -572,7 +572,7 @@
         <v>44683</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43871</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45086</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43431</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>43461</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>43565</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43851</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
         <v>43871</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>44132</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44152</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>44263</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44263</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         <v>44484</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         <v>44578</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         <v>44687</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         <v>45077</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
         <v>45077</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>45077</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>45077</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>

--- a/Översikt VADSTENA.xlsx
+++ b/Översikt VADSTENA.xlsx
@@ -572,7 +572,7 @@
         <v>44683</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43871</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45086</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43431</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>43461</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>43565</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43851</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
         <v>43871</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>44132</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44152</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>44263</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44263</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         <v>44484</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         <v>44578</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         <v>44687</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         <v>45077</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
         <v>45077</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>45077</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>45077</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>

--- a/Översikt VADSTENA.xlsx
+++ b/Översikt VADSTENA.xlsx
@@ -572,7 +572,7 @@
         <v>44683</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43871</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45086</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43431</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>43461</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>43565</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43851</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
         <v>43871</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>44132</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44152</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>44263</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44263</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         <v>44484</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         <v>44578</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         <v>44687</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         <v>45077</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
         <v>45077</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>45077</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>45077</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>

--- a/Översikt VADSTENA.xlsx
+++ b/Översikt VADSTENA.xlsx
@@ -572,7 +572,7 @@
         <v>44683</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43871</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45086</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43431</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>43461</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>43565</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43851</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
         <v>43871</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>44132</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44152</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>44263</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44263</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         <v>44484</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         <v>44578</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         <v>44687</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         <v>45077</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
         <v>45077</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>45077</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>45077</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>

--- a/Översikt VADSTENA.xlsx
+++ b/Översikt VADSTENA.xlsx
@@ -572,7 +572,7 @@
         <v>44683</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43871</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45086</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43431</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>43461</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>43565</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43851</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
         <v>43871</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>44132</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44152</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>44263</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44263</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         <v>44484</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         <v>44578</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         <v>44687</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         <v>45077</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
         <v>45077</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>45077</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>45077</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>

--- a/Översikt VADSTENA.xlsx
+++ b/Översikt VADSTENA.xlsx
@@ -572,7 +572,7 @@
         <v>44683</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43871</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45086</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43431</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>43461</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>43565</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43851</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
         <v>43871</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>44132</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44152</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>44263</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44263</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         <v>44484</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         <v>44578</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         <v>44687</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         <v>45077</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
         <v>45077</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>45077</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>45077</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>

--- a/Översikt VADSTENA.xlsx
+++ b/Översikt VADSTENA.xlsx
@@ -572,7 +572,7 @@
         <v>44683</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43871</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45086</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43431</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>43461</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>43565</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43851</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
         <v>43871</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>44132</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44152</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>44263</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44263</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         <v>44484</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         <v>44578</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         <v>44687</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         <v>45077</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
         <v>45077</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>45077</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>45077</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>

--- a/Översikt VADSTENA.xlsx
+++ b/Översikt VADSTENA.xlsx
@@ -572,7 +572,7 @@
         <v>44683</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43871</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45086</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43431</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>43461</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>43565</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43851</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
         <v>43871</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>44132</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44152</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>44263</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44263</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         <v>44484</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         <v>44578</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         <v>44687</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         <v>45077</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
         <v>45077</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>45077</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>45077</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
